--- a/biology/Zoologie/Crête-de-coq/Crête-de-coq.xlsx
+++ b/biology/Zoologie/Crête-de-coq/Crête-de-coq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte-de-coq</t>
+          <t>Crête-de-coq</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ptilodon capucina
 La Crête-de-coq (Ptilodon capucina) est une espèce de lépidoptères (papillons) de la famille des Notodontidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte-de-coq</t>
+          <t>Crête-de-coq</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Répartition : Europe.
 Envergure du mâle : 16 à 20 mm.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte-de-coq</t>
+          <t>Crête-de-coq</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acer - érable
 Alnus - Aulne
@@ -562,7 +578,7 @@
 Salix - Saule
 Sorbus - Sorbier
 Tilia - Tilleul
-Ulmus - Orme[1].</t>
+Ulmus - Orme.</t>
         </is>
       </c>
     </row>
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte-de-coq</t>
+          <t>Crête-de-coq</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>P.C. Rougeot, P. Viette, Guide des papillons nocturnes d'Europe et d'Afrique du Nord, Delachaux et Niestlé, Lausanne 1978.</t>
         </is>
